--- a/src/main/webapp/assets/excel/plan/Mining_Report_2.xlsx
+++ b/src/main/webapp/assets/excel/plan/Mining_Report_2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Тайлан татаж авсан огноо:</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Ашигтмалтмал</t>
+  </si>
+  <si>
+    <t>Тодотгол</t>
   </si>
 </sst>
 </file>
@@ -242,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -274,20 +277,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -297,6 +300,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -571,7 +577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -582,10 +588,10 @@
   <dimension ref="A1:CZ3101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -612,10 +618,10 @@
       <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:104" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:104" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -639,16 +645,19 @@
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="19" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:104" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -666,7 +675,7 @@
       <c r="E5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="13" t="s">
@@ -678,10 +687,10 @@
       <c r="I5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="L5" s="13" t="s">
@@ -690,7 +699,7 @@
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="O5" s="17" t="s">
@@ -708,6 +717,7 @@
       <c r="U5" s="17" t="s">
         <v>21</v>
       </c>
+      <c r="V5" s="19"/>
     </row>
     <row r="6" spans="1:104" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
@@ -715,15 +725,15 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="15"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
-      <c r="N6" s="11"/>
+      <c r="N6" s="14"/>
       <c r="O6" s="9" t="s">
         <v>24</v>
       </c>
@@ -739,6 +749,7 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
       <c r="U6" s="17"/>
+      <c r="V6" s="19"/>
     </row>
     <row r="7" spans="1:104" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -804,7 +815,9 @@
       <c r="U7" s="10">
         <v>21</v>
       </c>
-      <c r="V7" s="6"/>
+      <c r="V7" s="10">
+        <v>22</v>
+      </c>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
@@ -64337,7 +64350,14 @@
       <c r="Q3101"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="N4:U4"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="N5:N6"/>
@@ -64354,12 +64374,6 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="N4:U4"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
